--- a/static/Models/Regression/Equation/Energy.xlsx
+++ b/static/Models/Regression/Equation/Energy.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.01385647896677256</v>
+        <v>-0.009711924009025097</v>
       </c>
       <c r="C2">
-        <v>0.02408805675804615</v>
+        <v>0.02453885227441788</v>
       </c>
       <c r="D2">
-        <v>0.04938099160790443</v>
+        <v>0.05002608522772789</v>
       </c>
       <c r="E2">
-        <v>-0.06629393249750137</v>
+        <v>-0.06549482792615891</v>
       </c>
       <c r="F2">
-        <v>0.008871035650372505</v>
+        <v>0.01047367230057716</v>
       </c>
       <c r="G2">
-        <v>0.07120051234960556</v>
+        <v>0.07359891384840012</v>
       </c>
       <c r="H2">
-        <v>0.003836395451799035</v>
+        <v>0.005817264318466187</v>
       </c>
       <c r="I2">
-        <v>-0.00554327666759491</v>
+        <v>-0.006058655679225922</v>
       </c>
       <c r="J2">
-        <v>-0.08463616669178009</v>
+        <v>-0.0848662257194519</v>
       </c>
       <c r="K2">
-        <v>0.007095972541719675</v>
+        <v>-0.0009439350687898695</v>
       </c>
       <c r="L2">
-        <v>-0.003582541365176439</v>
+        <v>-0.004914304241538048</v>
       </c>
       <c r="M2">
-        <v>0.004310774616897106</v>
+        <v>0.00729566952213645</v>
       </c>
       <c r="N2">
-        <v>0.007354186847805977</v>
+        <v>0.001589468913152814</v>
       </c>
       <c r="O2">
-        <v>0.0589747428894043</v>
+        <v>0.06227770447731018</v>
       </c>
       <c r="P2">
-        <v>0.001963839400559664</v>
+        <v>0.0007669288897886872</v>
       </c>
       <c r="Q2">
-        <v>0.07728500664234161</v>
+        <v>0.07694056630134583</v>
       </c>
       <c r="R2">
-        <v>-0.007015159819275141</v>
+        <v>-0.006360430270433426</v>
       </c>
       <c r="S2">
-        <v>0.09828523546457291</v>
+        <v>0.09904991090297699</v>
       </c>
       <c r="T2">
-        <v>-0.01216723583638668</v>
+        <v>-0.01293294690549374</v>
       </c>
       <c r="U2">
-        <v>0.1074134781956673</v>
+        <v>0.1131430938839912</v>
       </c>
       <c r="V2">
-        <v>0.005296065472066402</v>
+        <v>0.004861126653850079</v>
       </c>
       <c r="W2">
-        <v>0.05004087090492249</v>
+        <v>0.04956468939781189</v>
       </c>
       <c r="X2">
-        <v>0.006860118359327316</v>
+        <v>0.01507059670984745</v>
       </c>
       <c r="Y2">
-        <v>0.01267196144908667</v>
+        <v>0.01178191602230072</v>
       </c>
       <c r="Z2">
-        <v>0.04742911458015442</v>
+        <v>0.04747006669640541</v>
       </c>
       <c r="AA2">
-        <v>0.00607012677937746</v>
+        <v>0.003187663154676557</v>
       </c>
       <c r="AB2">
-        <v>0.04754219204187393</v>
+        <v>0.04127132520079613</v>
       </c>
       <c r="AC2">
-        <v>0.0691441223025322</v>
+        <v>0.0705915242433548</v>
       </c>
       <c r="AD2">
-        <v>0.01485816296190023</v>
+        <v>0.01411030720919371</v>
       </c>
       <c r="AE2">
-        <v>-0.01451408863067627</v>
+        <v>-0.01749496534466743</v>
       </c>
       <c r="AF2">
-        <v>-0.001160199288278818</v>
+        <v>0.002048070309683681</v>
       </c>
       <c r="AG2">
-        <v>-0.1093537509441376</v>
+        <v>-0.1073573008179665</v>
       </c>
       <c r="AH2">
-        <v>0.0287330336868763</v>
+        <v>0.01979831419885159</v>
       </c>
       <c r="AI2">
-        <v>0.02092699520289898</v>
+        <v>0.0312759131193161</v>
       </c>
       <c r="AJ2">
-        <v>0.007343214005231857</v>
+        <v>0.005762499757111073</v>
       </c>
       <c r="AK2">
-        <v>0.0006868710624985397</v>
+        <v>-0.00161531160119921</v>
       </c>
       <c r="AL2">
-        <v>0.0007791792158968747</v>
+        <v>0.001958663109689951</v>
       </c>
       <c r="AM2">
-        <v>-0.05893631651997566</v>
+        <v>-0.06016332283616066</v>
       </c>
       <c r="AN2">
-        <v>0.05454603210091591</v>
+        <v>0.05567576363682747</v>
       </c>
       <c r="AO2">
-        <v>0.02322129718959332</v>
+        <v>0.02465679123997688</v>
       </c>
       <c r="AP2">
-        <v>-0.01752031780779362</v>
+        <v>-0.01786559820175171</v>
       </c>
       <c r="AQ2">
-        <v>0.0001176579607999884</v>
+        <v>-0.000571102078538388</v>
       </c>
       <c r="AR2">
-        <v>0.116275854408741</v>
+        <v>0.1216329634189606</v>
       </c>
       <c r="AS2">
-        <v>-0.01837929710745811</v>
+        <v>-0.01886482909321785</v>
       </c>
       <c r="AT2">
-        <v>0.002197529887780547</v>
+        <v>0.002141478005796671</v>
       </c>
       <c r="AU2">
-        <v>-0.03876456618309021</v>
+        <v>-0.0316661112010479</v>
       </c>
       <c r="AV2">
-        <v>0.04648866876959801</v>
+        <v>0.04579238221049309</v>
       </c>
       <c r="AW2">
-        <v>-0.01744841225445271</v>
+        <v>-0.01713931560516357</v>
       </c>
       <c r="AX2">
-        <v>-0.006323485169559717</v>
+        <v>0.0003688983269967139</v>
       </c>
       <c r="AY2">
-        <v>-0.07439661771059036</v>
+        <v>-0.07599931210279465</v>
       </c>
       <c r="AZ2">
-        <v>-0.02547429315745831</v>
+        <v>-0.02120732888579369</v>
       </c>
       <c r="BA2">
-        <v>0.05414031818509102</v>
+        <v>0.06205835938453674</v>
       </c>
       <c r="BB2">
-        <v>-0.03641890361905098</v>
+        <v>-0.03468295931816101</v>
       </c>
       <c r="BC2">
-        <v>-0.01371653750538826</v>
+        <v>-0.01757011748850346</v>
       </c>
       <c r="BD2">
-        <v>0.1561337113380432</v>
+        <v>0.1545970141887665</v>
       </c>
       <c r="BE2">
-        <v>0.001384655246511102</v>
+        <v>-0.004956649616360664</v>
       </c>
       <c r="BF2">
-        <v>-0.06674258410930634</v>
+        <v>-0.06559086591005325</v>
       </c>
       <c r="BG2">
-        <v>-0.02239721268415451</v>
+        <v>-0.02217598631978035</v>
       </c>
       <c r="BH2">
-        <v>-0.004604522138834</v>
+        <v>-0.003849431173875928</v>
       </c>
       <c r="BI2">
-        <v>-0.02409854903817177</v>
+        <v>-0.02550561912357807</v>
       </c>
       <c r="BJ2">
-        <v>0.004182872828096151</v>
+        <v>0.005933881737291813</v>
       </c>
       <c r="BK2">
-        <v>-0.006008212920278311</v>
+        <v>-0.01016094163060188</v>
       </c>
       <c r="BL2">
-        <v>0.02780497074127197</v>
+        <v>0.03203330188989639</v>
       </c>
       <c r="BM2">
-        <v>-0.02006830275058746</v>
+        <v>-0.016768429428339</v>
       </c>
       <c r="BN2">
-        <v>-0.0201447457075119</v>
+        <v>-0.01900219358503819</v>
       </c>
       <c r="BO2">
-        <v>0.00464823329821229</v>
+        <v>0.006717720068991184</v>
       </c>
       <c r="BP2">
-        <v>0.003009011270478368</v>
+        <v>0.004224615171551704</v>
       </c>
       <c r="BQ2">
-        <v>-0.01946903765201569</v>
+        <v>-0.01927364245057106</v>
       </c>
       <c r="BR2">
-        <v>-0.003028475679457188</v>
+        <v>-0.008336219936609268</v>
       </c>
       <c r="BS2">
-        <v>0.0008339507621712983</v>
+        <v>-0.003336381167173386</v>
       </c>
       <c r="BT2">
-        <v>0.006643188651651144</v>
+        <v>0.003732925048097968</v>
       </c>
       <c r="BU2">
-        <v>-0.05876696109771729</v>
+        <v>-0.0571279413998127</v>
       </c>
       <c r="BV2">
-        <v>0.02079908177256584</v>
+        <v>0.02997745200991631</v>
       </c>
       <c r="BW2">
-        <v>0.00259572803042829</v>
+        <v>0.01014220342040062</v>
       </c>
       <c r="BX2">
-        <v>0.08572681248188019</v>
+        <v>0.08290248364210129</v>
       </c>
       <c r="BY2">
-        <v>-0.005808777175843716</v>
+        <v>-0.004709399305284023</v>
       </c>
       <c r="BZ2">
-        <v>0.07073973119258881</v>
+        <v>0.07080573588609695</v>
       </c>
       <c r="CA2">
-        <v>-0.01718676276504993</v>
+        <v>-0.01775610260665417</v>
       </c>
       <c r="CB2">
-        <v>-0.1231766268610954</v>
+        <v>-0.1226897612214088</v>
       </c>
       <c r="CC2">
-        <v>-0.004841245245188475</v>
+        <v>-0.005299055483192205</v>
       </c>
       <c r="CD2">
-        <v>-0.006524380762130022</v>
+        <v>-0.007063549477607012</v>
       </c>
       <c r="CE2">
-        <v>-0.0146117489784956</v>
+        <v>-0.01351967826485634</v>
       </c>
       <c r="CF2">
-        <v>-0.03576366603374481</v>
+        <v>-0.0406242199242115</v>
       </c>
       <c r="CG2">
-        <v>-0.01222330611199141</v>
+        <v>-0.01361232623457909</v>
       </c>
       <c r="CH2">
-        <v>-0.05252937600016594</v>
+        <v>-0.04945872724056244</v>
       </c>
       <c r="CI2">
-        <v>0.01116058323532343</v>
+        <v>0.009249354712665081</v>
       </c>
       <c r="CJ2">
-        <v>0.05291019752621651</v>
+        <v>0.04729496687650681</v>
       </c>
       <c r="CK2">
-        <v>-0.0289670005440712</v>
+        <v>-0.02752410806715488</v>
       </c>
       <c r="CL2">
-        <v>-0.000590998912230134</v>
+        <v>-0.0005683841300196946</v>
       </c>
       <c r="CM2">
-        <v>0.02171855978667736</v>
+        <v>0.02278084866702557</v>
       </c>
       <c r="CN2">
-        <v>0.00344498292542994</v>
+        <v>0.0009968781378120184</v>
       </c>
       <c r="CO2">
-        <v>0.004143363796174526</v>
+        <v>0.00531328096985817</v>
       </c>
       <c r="CP2">
-        <v>0.04324709251523018</v>
+        <v>0.04482226818799973</v>
       </c>
       <c r="CQ2">
-        <v>-0.06374344974756241</v>
+        <v>-0.06016270443797112</v>
       </c>
       <c r="CR2">
-        <v>-0.01173608191311359</v>
+        <v>-0.01045325491577387</v>
       </c>
       <c r="CS2">
-        <v>0.0005761857610195875</v>
+        <v>-0.002832954749464989</v>
       </c>
       <c r="CT2">
-        <v>0.001160599058493972</v>
+        <v>0.0007473153527826071</v>
       </c>
       <c r="CU2">
-        <v>-0.0008152363589033484</v>
+        <v>0.0004140401433687657</v>
       </c>
       <c r="CV2">
-        <v>-0.005794859025627375</v>
+        <v>-0.003926082979887724</v>
       </c>
       <c r="CW2">
-        <v>-0.1055753901600838</v>
+        <v>-0.1026310324668884</v>
       </c>
       <c r="CX2">
-        <v>0.0009312300244346261</v>
+        <v>9.800080442801118E-05</v>
       </c>
       <c r="CY2">
-        <v>0.02126964181661606</v>
+        <v>0.02048332802951336</v>
       </c>
       <c r="CZ2">
-        <v>0.003146650502458215</v>
+        <v>0.0005395462503656745</v>
       </c>
       <c r="DA2">
-        <v>-0.08803770691156387</v>
+        <v>-0.08459888398647308</v>
       </c>
       <c r="DB2">
-        <v>-0.04517482221126556</v>
+        <v>-0.04823866486549377</v>
       </c>
       <c r="DC2">
-        <v>0.001050911494530737</v>
+        <v>-0.001011964050121605</v>
       </c>
       <c r="DD2">
-        <v>-0.08008453994989395</v>
+        <v>-0.08640120178461075</v>
       </c>
       <c r="DE2">
-        <v>-0.007356435991823673</v>
+        <v>-0.01148630119860172</v>
       </c>
       <c r="DF2">
-        <v>0.0662066787481308</v>
+        <v>0.07024519145488739</v>
       </c>
       <c r="DG2">
-        <v>-0.004532797262072563</v>
+        <v>-0.002623796928673983</v>
       </c>
       <c r="DH2">
-        <v>0.01001661084592342</v>
+        <v>0.005732845515012741</v>
       </c>
       <c r="DI2">
-        <v>0.00782149750739336</v>
+        <v>0.0137982526794076</v>
       </c>
       <c r="DJ2">
-        <v>-0.04865534231066704</v>
+        <v>-0.04607856646180153</v>
       </c>
       <c r="DK2">
-        <v>-0.0679318830370903</v>
+        <v>-0.06818812340497971</v>
       </c>
       <c r="DL2">
-        <v>-0.06218129396438599</v>
+        <v>-0.06343953311443329</v>
       </c>
       <c r="DM2">
-        <v>-0.0408383347094059</v>
+        <v>-0.03720920532941818</v>
       </c>
       <c r="DN2">
-        <v>0.04220456629991531</v>
+        <v>0.04217763990163803</v>
       </c>
       <c r="DO2">
-        <v>0.04545780643820763</v>
+        <v>0.04486648365855217</v>
       </c>
       <c r="DP2">
-        <v>-0.0205716397613287</v>
+        <v>-0.01654352061450481</v>
       </c>
       <c r="DQ2">
-        <v>0.002203524578362703</v>
+        <v>-0.001684924587607384</v>
       </c>
       <c r="DR2">
-        <v>-0.01107341051101685</v>
+        <v>-0.006257499102503061</v>
       </c>
       <c r="DS2">
-        <v>0.02492659911513329</v>
+        <v>0.01423262432217598</v>
       </c>
       <c r="DT2">
-        <v>-0.09240147471427917</v>
+        <v>-0.09462355077266693</v>
       </c>
       <c r="DU2">
-        <v>0.01513382885605097</v>
+        <v>0.01483555603772402</v>
       </c>
       <c r="DV2">
-        <v>0.0007172511541284621</v>
+        <v>-0.0002510792983230203</v>
       </c>
       <c r="DW2">
-        <v>0.002892734715715051</v>
+        <v>0.001423364738002419</v>
       </c>
       <c r="DX2">
-        <v>-0.04089968651533127</v>
+        <v>-0.04108402878046036</v>
       </c>
       <c r="DY2">
-        <v>0.005239869933575392</v>
+        <v>0.003724433248862624</v>
       </c>
       <c r="DZ2">
-        <v>-0.01459347084164619</v>
+        <v>-0.01174664683640003</v>
       </c>
       <c r="EA2">
-        <v>0.06516752392053604</v>
+        <v>0.06567540764808655</v>
       </c>
       <c r="EB2">
-        <v>-0.1454719007015228</v>
+        <v>-0.1461139619350433</v>
       </c>
       <c r="EC2">
-        <v>-0.007186249364167452</v>
+        <v>-0.006279681343585253</v>
       </c>
       <c r="ED2">
-        <v>-0.159784123301506</v>
+        <v>-0.1608164459466934</v>
       </c>
       <c r="EE2">
-        <v>0.02217037975788116</v>
+        <v>0.01750808022916317</v>
       </c>
       <c r="EF2">
-        <v>0.006778471637517214</v>
+        <v>0.01093015633523464</v>
       </c>
       <c r="EG2">
-        <v>-0.03879737481474876</v>
+        <v>-0.03982466086745262</v>
       </c>
       <c r="EH2">
-        <v>-0.1312782317399979</v>
+        <v>-0.1314164400100708</v>
       </c>
       <c r="EI2">
-        <v>0.06001974642276764</v>
+        <v>0.06046052649617195</v>
       </c>
       <c r="EJ2">
-        <v>-0.01911405473947525</v>
+        <v>-0.01799582876265049</v>
       </c>
       <c r="EK2">
-        <v>-0.001977319363504648</v>
+        <v>-0.002968803979456425</v>
       </c>
       <c r="EL2">
-        <v>-0.0001927377161337063</v>
+        <v>0.0004953760071657598</v>
       </c>
       <c r="EM2">
-        <v>0.05908065661787987</v>
+        <v>0.05927620083093643</v>
       </c>
       <c r="EN2">
-        <v>-0.03717276453971863</v>
+        <v>-0.0349593311548233</v>
       </c>
       <c r="EO2">
-        <v>0.08500102162361145</v>
+        <v>0.0850556269288063</v>
       </c>
       <c r="EP2">
-        <v>0.06664726138114929</v>
+        <v>0.06464910507202148</v>
       </c>
       <c r="EQ2">
-        <v>0.03350671753287315</v>
+        <v>0.0303991511464119</v>
       </c>
       <c r="ER2">
-        <v>-0.009204676374793053</v>
+        <v>-0.008602569811046124</v>
       </c>
       <c r="ES2">
-        <v>0.06365310400724411</v>
+        <v>0.06168946251273155</v>
       </c>
       <c r="ET2">
-        <v>0.005208977963775396</v>
+        <v>0.002579515567049384</v>
       </c>
       <c r="EU2">
-        <v>-0.03428212553262711</v>
+        <v>-0.04177538305521011</v>
       </c>
       <c r="EV2">
-        <v>0.02061734721064568</v>
+        <v>0.0195677001029253</v>
       </c>
       <c r="EW2">
-        <v>0.08221351355314255</v>
+        <v>0.07876985520124435</v>
       </c>
       <c r="EX2">
-        <v>-0.03130745887756348</v>
+        <v>-0.02966691739857197</v>
       </c>
       <c r="EY2">
-        <v>0.01321720145642757</v>
+        <v>0.01485502906143665</v>
       </c>
       <c r="EZ2">
-        <v>-0.08258028328418732</v>
+        <v>-0.08268285542726517</v>
       </c>
       <c r="FA2">
-        <v>-0.006335333455353975</v>
+        <v>-0.01137884613126516</v>
       </c>
       <c r="FB2">
-        <v>-0.001290287123993039</v>
+        <v>-0.00536107923835516</v>
       </c>
       <c r="FC2">
-        <v>-0.04645540565252304</v>
+        <v>-0.04568595439195633</v>
       </c>
       <c r="FD2">
-        <v>-0.001617910922504961</v>
+        <v>-0.004197464790195227</v>
       </c>
       <c r="FE2">
-        <v>-0.03652167692780495</v>
+        <v>-0.04213505983352661</v>
       </c>
       <c r="FF2">
-        <v>-0.03418028727173805</v>
+        <v>-0.03088624402880669</v>
       </c>
       <c r="FG2">
-        <v>-0.1259357631206512</v>
+        <v>-0.1230685040354729</v>
       </c>
       <c r="FH2">
-        <v>-0.01001978572458029</v>
+        <v>-0.01233574748039246</v>
       </c>
       <c r="FI2">
-        <v>0.03684113547205925</v>
+        <v>0.03949052840471268</v>
       </c>
       <c r="FJ2">
-        <v>0.02878605574369431</v>
+        <v>0.02896234951913357</v>
       </c>
       <c r="FK2">
-        <v>0.001549529028125107</v>
+        <v>0.003665345255285501</v>
       </c>
       <c r="FL2">
-        <v>-0.05397696793079376</v>
+        <v>-0.05303705111145973</v>
       </c>
       <c r="FM2">
-        <v>0.09754233062267303</v>
+        <v>0.1007203385233879</v>
       </c>
       <c r="FN2">
-        <v>0.0422416515648365</v>
+        <v>0.04680804908275604</v>
       </c>
       <c r="FO2">
-        <v>-0.001198075013235211</v>
+        <v>-0.004622896201908588</v>
       </c>
       <c r="FP2">
-        <v>0.00722385523840785</v>
+        <v>0.01057420484721661</v>
       </c>
       <c r="FQ2">
-        <v>0.008406500332057476</v>
+        <v>0.009364092722535133</v>
       </c>
       <c r="FR2">
-        <v>0.005744123831391335</v>
+        <v>0.001666549243964255</v>
       </c>
       <c r="FS2">
-        <v>-0.0001818110467866063</v>
+        <v>0.0002208192454418167</v>
       </c>
       <c r="FT2">
-        <v>-0.003652913030236959</v>
+        <v>-0.003073996398597956</v>
       </c>
       <c r="FU2">
-        <v>0.2076588124036789</v>
+        <v>0.2069614380598068</v>
       </c>
       <c r="FV2">
-        <v>0.07249765843153</v>
+        <v>0.07422876358032227</v>
       </c>
       <c r="FW2">
-        <v>-0.00251835910603404</v>
+        <v>-0.005601405166089535</v>
       </c>
       <c r="FX2">
-        <v>0.005578858312219381</v>
+        <v>0.002449095016345382</v>
       </c>
       <c r="FY2">
-        <v>-0.001267863321118057</v>
+        <v>-0.0009860763093456626</v>
       </c>
       <c r="FZ2">
-        <v>0.002874830272048712</v>
+        <v>0.002832611091434956</v>
       </c>
       <c r="GA2">
-        <v>-0.04491677507758141</v>
+        <v>-0.0417763851583004</v>
       </c>
       <c r="GB2">
-        <v>0.001806682907044888</v>
+        <v>0.001162348547950387</v>
       </c>
       <c r="GC2">
-        <v>-0.1049581095576286</v>
+        <v>-0.1065574064850807</v>
       </c>
       <c r="GD2">
-        <v>-0.02366076782345772</v>
+        <v>-0.0207553431391716</v>
       </c>
       <c r="GE2">
-        <v>0.008104035630822182</v>
+        <v>0.008994852192699909</v>
       </c>
       <c r="GF2">
-        <v>-0.05562280118465424</v>
+        <v>-0.05505489930510521</v>
       </c>
       <c r="GG2">
-        <v>-0.09473772346973419</v>
+        <v>-0.09561879187822342</v>
       </c>
       <c r="GH2">
-        <v>0.0006248850841075182</v>
+        <v>0.008566728793084621</v>
       </c>
       <c r="GI2">
-        <v>-0.01877166144549847</v>
+        <v>-0.02004076354205608</v>
       </c>
       <c r="GJ2">
-        <v>-0.00448507908731699</v>
+        <v>-0.004846896976232529</v>
       </c>
       <c r="GK2">
-        <v>-0.1144943386316299</v>
+        <v>-0.1102610528469086</v>
       </c>
       <c r="GL2">
-        <v>-0.0556282177567482</v>
+        <v>-0.05557109415531158</v>
       </c>
       <c r="GM2">
-        <v>-0.0453450009226799</v>
+        <v>-0.04432957991957664</v>
       </c>
       <c r="GN2">
-        <v>0.01171826757490635</v>
+        <v>0.0156612191349268</v>
       </c>
       <c r="GO2">
-        <v>0.03258318454027176</v>
+        <v>0.03030013106763363</v>
       </c>
       <c r="GP2">
-        <v>0.007164317183196545</v>
+        <v>0.007431882433593273</v>
       </c>
       <c r="GQ2">
-        <v>0.0005234761629253626</v>
+        <v>-0.001209471723996103</v>
       </c>
       <c r="GR2">
-        <v>0.0100583154708147</v>
+        <v>0.004937970079481602</v>
       </c>
       <c r="GS2">
-        <v>-0.1169092655181885</v>
+        <v>-0.1125223860144615</v>
       </c>
       <c r="GT2">
-        <v>0.001979168737307191</v>
+        <v>-0.001373829785734415</v>
       </c>
       <c r="GU2">
-        <v>0.02521710842847824</v>
+        <v>0.02453639172017574</v>
       </c>
       <c r="GV2">
-        <v>-0.003216843353584409</v>
+        <v>-0.01148954685777426</v>
       </c>
       <c r="GW2">
-        <v>-0.03430573269724846</v>
+        <v>-0.03445583581924438</v>
       </c>
       <c r="GX2">
-        <v>0.003497384255751967</v>
+        <v>0.002238138811662793</v>
       </c>
       <c r="GY2">
-        <v>-0.01097188051789999</v>
+        <v>-0.01127481833100319</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Energy.xlsx
+++ b/static/Models/Regression/Equation/Energy.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.009711924009025097</v>
+        <v>-0.003199120750650764</v>
       </c>
       <c r="C2">
-        <v>0.02453885227441788</v>
+        <v>0.02017180994153023</v>
       </c>
       <c r="D2">
-        <v>0.05002608522772789</v>
+        <v>0.04925362765789032</v>
       </c>
       <c r="E2">
-        <v>-0.06549482792615891</v>
+        <v>-0.06054291501641273</v>
       </c>
       <c r="F2">
-        <v>0.01047367230057716</v>
+        <v>0.008718338795006275</v>
       </c>
       <c r="G2">
-        <v>0.07359891384840012</v>
+        <v>0.07596790790557861</v>
       </c>
       <c r="H2">
-        <v>0.005817264318466187</v>
+        <v>0.003769942559301853</v>
       </c>
       <c r="I2">
-        <v>-0.006058655679225922</v>
+        <v>-0.00643625482916832</v>
       </c>
       <c r="J2">
-        <v>-0.0848662257194519</v>
+        <v>-0.07998863607645035</v>
       </c>
       <c r="K2">
-        <v>-0.0009439350687898695</v>
+        <v>-0.002569027477875352</v>
       </c>
       <c r="L2">
-        <v>-0.004914304241538048</v>
+        <v>-0.01098547969013453</v>
       </c>
       <c r="M2">
-        <v>0.00729566952213645</v>
+        <v>0.00877065397799015</v>
       </c>
       <c r="N2">
-        <v>0.001589468913152814</v>
+        <v>0.006169840227812529</v>
       </c>
       <c r="O2">
-        <v>0.06227770447731018</v>
+        <v>0.06332811713218689</v>
       </c>
       <c r="P2">
-        <v>0.0007669288897886872</v>
+        <v>-0.0002252021513413638</v>
       </c>
       <c r="Q2">
-        <v>0.07694056630134583</v>
+        <v>0.07627423852682114</v>
       </c>
       <c r="R2">
-        <v>-0.006360430270433426</v>
+        <v>-0.002606764202937484</v>
       </c>
       <c r="S2">
-        <v>0.09904991090297699</v>
+        <v>0.1000028550624847</v>
       </c>
       <c r="T2">
-        <v>-0.01293294690549374</v>
+        <v>-0.01454473100602627</v>
       </c>
       <c r="U2">
-        <v>0.1131430938839912</v>
+        <v>0.112528383731842</v>
       </c>
       <c r="V2">
-        <v>0.004861126653850079</v>
+        <v>0.005324423313140869</v>
       </c>
       <c r="W2">
-        <v>0.04956468939781189</v>
+        <v>0.05167395994067192</v>
       </c>
       <c r="X2">
-        <v>0.01507059670984745</v>
+        <v>0.01468121353536844</v>
       </c>
       <c r="Y2">
-        <v>0.01178191602230072</v>
+        <v>0.01109812408685684</v>
       </c>
       <c r="Z2">
-        <v>0.04747006669640541</v>
+        <v>0.04796023294329643</v>
       </c>
       <c r="AA2">
-        <v>0.003187663154676557</v>
+        <v>0.003224774496629834</v>
       </c>
       <c r="AB2">
-        <v>0.04127132520079613</v>
+        <v>0.03968850150704384</v>
       </c>
       <c r="AC2">
-        <v>0.0705915242433548</v>
+        <v>0.0743909627199173</v>
       </c>
       <c r="AD2">
-        <v>0.01411030720919371</v>
+        <v>0.01319503225386143</v>
       </c>
       <c r="AE2">
-        <v>-0.01749496534466743</v>
+        <v>-0.02223669551312923</v>
       </c>
       <c r="AF2">
-        <v>0.002048070309683681</v>
+        <v>0.004290396347641945</v>
       </c>
       <c r="AG2">
-        <v>-0.1073573008179665</v>
+        <v>-0.1033152565360069</v>
       </c>
       <c r="AH2">
-        <v>0.01979831419885159</v>
+        <v>0.0232448372989893</v>
       </c>
       <c r="AI2">
-        <v>0.0312759131193161</v>
+        <v>0.02886666357517242</v>
       </c>
       <c r="AJ2">
-        <v>0.005762499757111073</v>
+        <v>-0.001384220784530044</v>
       </c>
       <c r="AK2">
-        <v>-0.00161531160119921</v>
+        <v>-0.002713999012485147</v>
       </c>
       <c r="AL2">
-        <v>0.001958663109689951</v>
+        <v>0.002224610885605216</v>
       </c>
       <c r="AM2">
-        <v>-0.06016332283616066</v>
+        <v>-0.06264267861843109</v>
       </c>
       <c r="AN2">
-        <v>0.05567576363682747</v>
+        <v>0.05438470095396042</v>
       </c>
       <c r="AO2">
-        <v>0.02465679123997688</v>
+        <v>0.02525435760617256</v>
       </c>
       <c r="AP2">
-        <v>-0.01786559820175171</v>
+        <v>-0.01694974489510059</v>
       </c>
       <c r="AQ2">
-        <v>-0.000571102078538388</v>
+        <v>0.0001592077896930277</v>
       </c>
       <c r="AR2">
-        <v>0.1216329634189606</v>
+        <v>0.1216084733605385</v>
       </c>
       <c r="AS2">
-        <v>-0.01886482909321785</v>
+        <v>-0.01893653534352779</v>
       </c>
       <c r="AT2">
-        <v>0.002141478005796671</v>
+        <v>0.004900102503597736</v>
       </c>
       <c r="AU2">
-        <v>-0.0316661112010479</v>
+        <v>-0.03048665449023247</v>
       </c>
       <c r="AV2">
-        <v>0.04579238221049309</v>
+        <v>0.04833131656050682</v>
       </c>
       <c r="AW2">
-        <v>-0.01713931560516357</v>
+        <v>-0.01609611138701439</v>
       </c>
       <c r="AX2">
-        <v>0.0003688983269967139</v>
+        <v>-0.002280058804899454</v>
       </c>
       <c r="AY2">
-        <v>-0.07599931210279465</v>
+        <v>-0.07329694926738739</v>
       </c>
       <c r="AZ2">
-        <v>-0.02120732888579369</v>
+        <v>-0.02401138469576836</v>
       </c>
       <c r="BA2">
-        <v>0.06205835938453674</v>
+        <v>0.06024054810404778</v>
       </c>
       <c r="BB2">
-        <v>-0.03468295931816101</v>
+        <v>-0.03683038800954819</v>
       </c>
       <c r="BC2">
-        <v>-0.01757011748850346</v>
+        <v>-0.01936897821724415</v>
       </c>
       <c r="BD2">
-        <v>0.1545970141887665</v>
+        <v>0.1535786390304565</v>
       </c>
       <c r="BE2">
-        <v>-0.004956649616360664</v>
+        <v>-0.009513629600405693</v>
       </c>
       <c r="BF2">
-        <v>-0.06559086591005325</v>
+        <v>-0.06739813834428787</v>
       </c>
       <c r="BG2">
-        <v>-0.02217598631978035</v>
+        <v>-0.02259484119713306</v>
       </c>
       <c r="BH2">
-        <v>-0.003849431173875928</v>
+        <v>-0.005106823984533548</v>
       </c>
       <c r="BI2">
-        <v>-0.02550561912357807</v>
+        <v>-0.02665258198976517</v>
       </c>
       <c r="BJ2">
-        <v>0.005933881737291813</v>
+        <v>0.009126779623329639</v>
       </c>
       <c r="BK2">
-        <v>-0.01016094163060188</v>
+        <v>-0.01269294135272503</v>
       </c>
       <c r="BL2">
-        <v>0.03203330188989639</v>
+        <v>0.03858540579676628</v>
       </c>
       <c r="BM2">
-        <v>-0.016768429428339</v>
+        <v>-0.01852959394454956</v>
       </c>
       <c r="BN2">
-        <v>-0.01900219358503819</v>
+        <v>-0.02563268505036831</v>
       </c>
       <c r="BO2">
-        <v>0.006717720068991184</v>
+        <v>0.006650429219007492</v>
       </c>
       <c r="BP2">
-        <v>0.004224615171551704</v>
+        <v>0.005836409982293844</v>
       </c>
       <c r="BQ2">
-        <v>-0.01927364245057106</v>
+        <v>-0.01901276968419552</v>
       </c>
       <c r="BR2">
-        <v>-0.008336219936609268</v>
+        <v>-0.01070026215165854</v>
       </c>
       <c r="BS2">
-        <v>-0.003336381167173386</v>
+        <v>-0.00385628012008965</v>
       </c>
       <c r="BT2">
-        <v>0.003732925048097968</v>
+        <v>0.002386758336797357</v>
       </c>
       <c r="BU2">
-        <v>-0.0571279413998127</v>
+        <v>-0.05817066133022308</v>
       </c>
       <c r="BV2">
-        <v>0.02997745200991631</v>
+        <v>0.03220761567354202</v>
       </c>
       <c r="BW2">
-        <v>0.01014220342040062</v>
+        <v>0.005627202335745096</v>
       </c>
       <c r="BX2">
-        <v>0.08290248364210129</v>
+        <v>0.08754491060972214</v>
       </c>
       <c r="BY2">
-        <v>-0.004709399305284023</v>
+        <v>-0.004304408095777035</v>
       </c>
       <c r="BZ2">
-        <v>0.07080573588609695</v>
+        <v>0.07337795197963715</v>
       </c>
       <c r="CA2">
-        <v>-0.01775610260665417</v>
+        <v>-0.01769445650279522</v>
       </c>
       <c r="CB2">
-        <v>-0.1226897612214088</v>
+        <v>-0.1221389546990395</v>
       </c>
       <c r="CC2">
-        <v>-0.005299055483192205</v>
+        <v>-0.005361583549529314</v>
       </c>
       <c r="CD2">
-        <v>-0.007063549477607012</v>
+        <v>-0.006088998168706894</v>
       </c>
       <c r="CE2">
-        <v>-0.01351967826485634</v>
+        <v>-0.01027265004813671</v>
       </c>
       <c r="CF2">
-        <v>-0.0406242199242115</v>
+        <v>-0.04074019193649292</v>
       </c>
       <c r="CG2">
-        <v>-0.01361232623457909</v>
+        <v>-0.01275834813714027</v>
       </c>
       <c r="CH2">
-        <v>-0.04945872724056244</v>
+        <v>-0.04688328504562378</v>
       </c>
       <c r="CI2">
-        <v>0.009249354712665081</v>
+        <v>0.008742882870137691</v>
       </c>
       <c r="CJ2">
-        <v>0.04729496687650681</v>
+        <v>0.04917549341917038</v>
       </c>
       <c r="CK2">
-        <v>-0.02752410806715488</v>
+        <v>-0.02916372567415237</v>
       </c>
       <c r="CL2">
-        <v>-0.0005683841300196946</v>
+        <v>-0.0003902780299540609</v>
       </c>
       <c r="CM2">
-        <v>0.02278084866702557</v>
+        <v>0.02261988818645477</v>
       </c>
       <c r="CN2">
-        <v>0.0009968781378120184</v>
+        <v>0.0002152395900338888</v>
       </c>
       <c r="CO2">
-        <v>0.00531328096985817</v>
+        <v>0.005460849963128567</v>
       </c>
       <c r="CP2">
-        <v>0.04482226818799973</v>
+        <v>0.04337994381785393</v>
       </c>
       <c r="CQ2">
-        <v>-0.06016270443797112</v>
+        <v>-0.06238647922873497</v>
       </c>
       <c r="CR2">
-        <v>-0.01045325491577387</v>
+        <v>-0.01550058461725712</v>
       </c>
       <c r="CS2">
-        <v>-0.002832954749464989</v>
+        <v>-0.004051374271512032</v>
       </c>
       <c r="CT2">
-        <v>0.0007473153527826071</v>
+        <v>0.0008648567018099129</v>
       </c>
       <c r="CU2">
-        <v>0.0004140401433687657</v>
+        <v>-0.002785883145406842</v>
       </c>
       <c r="CV2">
-        <v>-0.003926082979887724</v>
+        <v>0.001675292383879423</v>
       </c>
       <c r="CW2">
-        <v>-0.1026310324668884</v>
+        <v>-0.1025248914957047</v>
       </c>
       <c r="CX2">
-        <v>9.800080442801118E-05</v>
+        <v>0.004697320982813835</v>
       </c>
       <c r="CY2">
-        <v>0.02048332802951336</v>
+        <v>0.01908483728766441</v>
       </c>
       <c r="CZ2">
-        <v>0.0005395462503656745</v>
+        <v>-5.086681630928069E-05</v>
       </c>
       <c r="DA2">
-        <v>-0.08459888398647308</v>
+        <v>-0.08520576357841492</v>
       </c>
       <c r="DB2">
-        <v>-0.04823866486549377</v>
+        <v>-0.04440593346953392</v>
       </c>
       <c r="DC2">
-        <v>-0.001011964050121605</v>
+        <v>-0.0002066275774268433</v>
       </c>
       <c r="DD2">
-        <v>-0.08640120178461075</v>
+        <v>-0.08326399326324463</v>
       </c>
       <c r="DE2">
-        <v>-0.01148630119860172</v>
+        <v>-0.01324726548045874</v>
       </c>
       <c r="DF2">
-        <v>0.07024519145488739</v>
+        <v>0.07538864016532898</v>
       </c>
       <c r="DG2">
-        <v>-0.002623796928673983</v>
+        <v>-0.003074843203648925</v>
       </c>
       <c r="DH2">
-        <v>0.005732845515012741</v>
+        <v>0.006231603212654591</v>
       </c>
       <c r="DI2">
-        <v>0.0137982526794076</v>
+        <v>0.009995987638831139</v>
       </c>
       <c r="DJ2">
-        <v>-0.04607856646180153</v>
+        <v>-0.0471198596060276</v>
       </c>
       <c r="DK2">
-        <v>-0.06818812340497971</v>
+        <v>-0.06420338898897171</v>
       </c>
       <c r="DL2">
-        <v>-0.06343953311443329</v>
+        <v>-0.0627831444144249</v>
       </c>
       <c r="DM2">
-        <v>-0.03720920532941818</v>
+        <v>-0.03733348101377487</v>
       </c>
       <c r="DN2">
-        <v>0.04217763990163803</v>
+        <v>0.04191075265407562</v>
       </c>
       <c r="DO2">
-        <v>0.04486648365855217</v>
+        <v>0.03975948318839073</v>
       </c>
       <c r="DP2">
-        <v>-0.01654352061450481</v>
+        <v>-0.01008815504610538</v>
       </c>
       <c r="DQ2">
-        <v>-0.001684924587607384</v>
+        <v>-0.003555140225216746</v>
       </c>
       <c r="DR2">
-        <v>-0.006257499102503061</v>
+        <v>-0.006348727270960808</v>
       </c>
       <c r="DS2">
-        <v>0.01423262432217598</v>
+        <v>0.01105581410229206</v>
       </c>
       <c r="DT2">
-        <v>-0.09462355077266693</v>
+        <v>-0.1012129634618759</v>
       </c>
       <c r="DU2">
-        <v>0.01483555603772402</v>
+        <v>0.01534788869321346</v>
       </c>
       <c r="DV2">
-        <v>-0.0002510792983230203</v>
+        <v>-0.001964384224265814</v>
       </c>
       <c r="DW2">
-        <v>0.001423364738002419</v>
+        <v>0.0003182934306096286</v>
       </c>
       <c r="DX2">
-        <v>-0.04108402878046036</v>
+        <v>-0.04112215340137482</v>
       </c>
       <c r="DY2">
-        <v>0.003724433248862624</v>
+        <v>0.005098120309412479</v>
       </c>
       <c r="DZ2">
-        <v>-0.01174664683640003</v>
+        <v>-0.01092800404876471</v>
       </c>
       <c r="EA2">
-        <v>0.06567540764808655</v>
+        <v>0.06640927493572235</v>
       </c>
       <c r="EB2">
-        <v>-0.1461139619350433</v>
+        <v>-0.1461886614561081</v>
       </c>
       <c r="EC2">
-        <v>-0.006279681343585253</v>
+        <v>-0.004490029998123646</v>
       </c>
       <c r="ED2">
-        <v>-0.1608164459466934</v>
+        <v>-0.162814736366272</v>
       </c>
       <c r="EE2">
-        <v>0.01750808022916317</v>
+        <v>0.01545199751853943</v>
       </c>
       <c r="EF2">
-        <v>0.01093015633523464</v>
+        <v>0.009276906959712505</v>
       </c>
       <c r="EG2">
-        <v>-0.03982466086745262</v>
+        <v>-0.04157355427742004</v>
       </c>
       <c r="EH2">
-        <v>-0.1314164400100708</v>
+        <v>-0.13393634557724</v>
       </c>
       <c r="EI2">
-        <v>0.06046052649617195</v>
+        <v>0.06153658032417297</v>
       </c>
       <c r="EJ2">
-        <v>-0.01799582876265049</v>
+        <v>-0.01798336952924728</v>
       </c>
       <c r="EK2">
-        <v>-0.002968803979456425</v>
+        <v>-0.003298363415524364</v>
       </c>
       <c r="EL2">
-        <v>0.0004953760071657598</v>
+        <v>0.000356113538146019</v>
       </c>
       <c r="EM2">
-        <v>0.05927620083093643</v>
+        <v>0.06348453462123871</v>
       </c>
       <c r="EN2">
-        <v>-0.0349593311548233</v>
+        <v>-0.03361566737294197</v>
       </c>
       <c r="EO2">
-        <v>0.0850556269288063</v>
+        <v>0.08473454415798187</v>
       </c>
       <c r="EP2">
-        <v>0.06464910507202148</v>
+        <v>0.06363093107938766</v>
       </c>
       <c r="EQ2">
-        <v>0.0303991511464119</v>
+        <v>0.02995352447032928</v>
       </c>
       <c r="ER2">
-        <v>-0.008602569811046124</v>
+        <v>-0.006100028287619352</v>
       </c>
       <c r="ES2">
-        <v>0.06168946251273155</v>
+        <v>0.06342427432537079</v>
       </c>
       <c r="ET2">
-        <v>0.002579515567049384</v>
+        <v>0.001379718771204352</v>
       </c>
       <c r="EU2">
-        <v>-0.04177538305521011</v>
+        <v>-0.04606945440173149</v>
       </c>
       <c r="EV2">
-        <v>0.0195677001029253</v>
+        <v>0.01527482084929943</v>
       </c>
       <c r="EW2">
-        <v>0.07876985520124435</v>
+        <v>0.08133870363235474</v>
       </c>
       <c r="EX2">
-        <v>-0.02966691739857197</v>
+        <v>-0.02839481271803379</v>
       </c>
       <c r="EY2">
-        <v>0.01485502906143665</v>
+        <v>0.01482911966741085</v>
       </c>
       <c r="EZ2">
-        <v>-0.08268285542726517</v>
+        <v>-0.08337011933326721</v>
       </c>
       <c r="FA2">
-        <v>-0.01137884613126516</v>
+        <v>-0.01255905814468861</v>
       </c>
       <c r="FB2">
-        <v>-0.00536107923835516</v>
+        <v>-0.006795557681471109</v>
       </c>
       <c r="FC2">
-        <v>-0.04568595439195633</v>
+        <v>-0.04652866348624229</v>
       </c>
       <c r="FD2">
-        <v>-0.004197464790195227</v>
+        <v>-0.004357598256319761</v>
       </c>
       <c r="FE2">
-        <v>-0.04213505983352661</v>
+        <v>-0.04641168937087059</v>
       </c>
       <c r="FF2">
-        <v>-0.03088624402880669</v>
+        <v>-0.03110642731189728</v>
       </c>
       <c r="FG2">
-        <v>-0.1230685040354729</v>
+        <v>-0.1211433857679367</v>
       </c>
       <c r="FH2">
-        <v>-0.01233574748039246</v>
+        <v>-0.007535842247307301</v>
       </c>
       <c r="FI2">
-        <v>0.03949052840471268</v>
+        <v>0.03403348103165627</v>
       </c>
       <c r="FJ2">
-        <v>0.02896234951913357</v>
+        <v>0.02754890918731689</v>
       </c>
       <c r="FK2">
-        <v>0.003665345255285501</v>
+        <v>0.002946094144135714</v>
       </c>
       <c r="FL2">
-        <v>-0.05303705111145973</v>
+        <v>-0.05226797983050346</v>
       </c>
       <c r="FM2">
-        <v>0.1007203385233879</v>
+        <v>0.1042638793587685</v>
       </c>
       <c r="FN2">
-        <v>0.04680804908275604</v>
+        <v>0.05186726897954941</v>
       </c>
       <c r="FO2">
-        <v>-0.004622896201908588</v>
+        <v>-0.002801869530230761</v>
       </c>
       <c r="FP2">
-        <v>0.01057420484721661</v>
+        <v>0.01270466111600399</v>
       </c>
       <c r="FQ2">
-        <v>0.009364092722535133</v>
+        <v>0.009492007084190845</v>
       </c>
       <c r="FR2">
-        <v>0.001666549243964255</v>
+        <v>3.913933687726967E-05</v>
       </c>
       <c r="FS2">
-        <v>0.0002208192454418167</v>
+        <v>0.001087121316231787</v>
       </c>
       <c r="FT2">
-        <v>-0.003073996398597956</v>
+        <v>-0.003723130095750093</v>
       </c>
       <c r="FU2">
-        <v>0.2069614380598068</v>
+        <v>0.2054208070039749</v>
       </c>
       <c r="FV2">
-        <v>0.07422876358032227</v>
+        <v>0.07270964980125427</v>
       </c>
       <c r="FW2">
-        <v>-0.005601405166089535</v>
+        <v>-0.006616530474275351</v>
       </c>
       <c r="FX2">
-        <v>0.002449095016345382</v>
+        <v>0.006067690439522266</v>
       </c>
       <c r="FY2">
-        <v>-0.0009860763093456626</v>
+        <v>-0.003062284318730235</v>
       </c>
       <c r="FZ2">
-        <v>0.002832611091434956</v>
+        <v>0.005575123708695173</v>
       </c>
       <c r="GA2">
-        <v>-0.0417763851583004</v>
+        <v>-0.04038200899958611</v>
       </c>
       <c r="GB2">
-        <v>0.001162348547950387</v>
+        <v>-0.0004469067789614201</v>
       </c>
       <c r="GC2">
-        <v>-0.1065574064850807</v>
+        <v>-0.1045455560088158</v>
       </c>
       <c r="GD2">
-        <v>-0.0207553431391716</v>
+        <v>-0.02229881659150124</v>
       </c>
       <c r="GE2">
-        <v>0.008994852192699909</v>
+        <v>0.008927102200686932</v>
       </c>
       <c r="GF2">
-        <v>-0.05505489930510521</v>
+        <v>-0.05770380422472954</v>
       </c>
       <c r="GG2">
-        <v>-0.09561879187822342</v>
+        <v>-0.09601203352212906</v>
       </c>
       <c r="GH2">
-        <v>0.008566728793084621</v>
+        <v>0.007533492054790258</v>
       </c>
       <c r="GI2">
-        <v>-0.02004076354205608</v>
+        <v>-0.02397334761917591</v>
       </c>
       <c r="GJ2">
-        <v>-0.004846896976232529</v>
+        <v>-0.005933028645813465</v>
       </c>
       <c r="GK2">
-        <v>-0.1102610528469086</v>
+        <v>-0.1104792207479477</v>
       </c>
       <c r="GL2">
-        <v>-0.05557109415531158</v>
+        <v>-0.05068937689065933</v>
       </c>
       <c r="GM2">
-        <v>-0.04432957991957664</v>
+        <v>-0.04535941407084465</v>
       </c>
       <c r="GN2">
-        <v>0.0156612191349268</v>
+        <v>0.01714657805860043</v>
       </c>
       <c r="GO2">
-        <v>0.03030013106763363</v>
+        <v>0.02575788646936417</v>
       </c>
       <c r="GP2">
-        <v>0.007431882433593273</v>
+        <v>0.007507287431508303</v>
       </c>
       <c r="GQ2">
-        <v>-0.001209471723996103</v>
+        <v>0.001552812173031271</v>
       </c>
       <c r="GR2">
-        <v>0.004937970079481602</v>
+        <v>0.006001109723001719</v>
       </c>
       <c r="GS2">
-        <v>-0.1125223860144615</v>
+        <v>-0.1123730689287186</v>
       </c>
       <c r="GT2">
-        <v>-0.001373829785734415</v>
+        <v>-0.003878475166857243</v>
       </c>
       <c r="GU2">
-        <v>0.02453639172017574</v>
+        <v>0.02530094422399998</v>
       </c>
       <c r="GV2">
-        <v>-0.01148954685777426</v>
+        <v>-0.01173541415482759</v>
       </c>
       <c r="GW2">
-        <v>-0.03445583581924438</v>
+        <v>-0.03828799352049828</v>
       </c>
       <c r="GX2">
-        <v>0.002238138811662793</v>
+        <v>0.0005647643702104688</v>
       </c>
       <c r="GY2">
-        <v>-0.01127481833100319</v>
+        <v>-0.01186116319149733</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Energy.xlsx
+++ b/static/Models/Regression/Equation/Energy.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.003199120750650764</v>
+        <v>9.025377221405506E-05</v>
       </c>
       <c r="C2">
-        <v>0.02017180994153023</v>
+        <v>0.01837428659200668</v>
       </c>
       <c r="D2">
-        <v>0.04925362765789032</v>
+        <v>0.04959394410252571</v>
       </c>
       <c r="E2">
-        <v>-0.06054291501641273</v>
+        <v>-0.06324882805347443</v>
       </c>
       <c r="F2">
-        <v>0.008718338795006275</v>
+        <v>0.001503258477896452</v>
       </c>
       <c r="G2">
-        <v>0.07596790790557861</v>
+        <v>0.07746297121047974</v>
       </c>
       <c r="H2">
-        <v>0.003769942559301853</v>
+        <v>0.004743201192468405</v>
       </c>
       <c r="I2">
-        <v>-0.00643625482916832</v>
+        <v>-0.005147228948771954</v>
       </c>
       <c r="J2">
-        <v>-0.07998863607645035</v>
+        <v>-0.07361312210559845</v>
       </c>
       <c r="K2">
-        <v>-0.002569027477875352</v>
+        <v>-0.002364092972129583</v>
       </c>
       <c r="L2">
-        <v>-0.01098547969013453</v>
+        <v>-0.00229257601313293</v>
       </c>
       <c r="M2">
-        <v>0.00877065397799015</v>
+        <v>0.009633665904402733</v>
       </c>
       <c r="N2">
-        <v>0.006169840227812529</v>
+        <v>0.004649619571864605</v>
       </c>
       <c r="O2">
-        <v>0.06332811713218689</v>
+        <v>0.0592191070318222</v>
       </c>
       <c r="P2">
-        <v>-0.0002252021513413638</v>
+        <v>-0.007756066974252462</v>
       </c>
       <c r="Q2">
-        <v>0.07627423852682114</v>
+        <v>0.06548423320055008</v>
       </c>
       <c r="R2">
-        <v>-0.002606764202937484</v>
+        <v>-0.01195298507809639</v>
       </c>
       <c r="S2">
-        <v>0.1000028550624847</v>
+        <v>0.1131819188594818</v>
       </c>
       <c r="T2">
-        <v>-0.01454473100602627</v>
+        <v>-0.01495082210749388</v>
       </c>
       <c r="U2">
-        <v>0.112528383731842</v>
+        <v>0.1138581186532974</v>
       </c>
       <c r="V2">
-        <v>0.005324423313140869</v>
+        <v>0.002067978493869305</v>
       </c>
       <c r="W2">
-        <v>0.05167395994067192</v>
+        <v>0.05041636526584625</v>
       </c>
       <c r="X2">
-        <v>0.01468121353536844</v>
+        <v>0.01669447310268879</v>
       </c>
       <c r="Y2">
-        <v>0.01109812408685684</v>
+        <v>0.001619910006411374</v>
       </c>
       <c r="Z2">
-        <v>0.04796023294329643</v>
+        <v>0.04502612724900246</v>
       </c>
       <c r="AA2">
-        <v>0.003224774496629834</v>
+        <v>0.005487015005201101</v>
       </c>
       <c r="AB2">
-        <v>0.03968850150704384</v>
+        <v>0.0431838184595108</v>
       </c>
       <c r="AC2">
-        <v>0.0743909627199173</v>
+        <v>0.07221674919128418</v>
       </c>
       <c r="AD2">
-        <v>0.01319503225386143</v>
+        <v>0.01327903661876917</v>
       </c>
       <c r="AE2">
-        <v>-0.02223669551312923</v>
+        <v>-0.01656804606318474</v>
       </c>
       <c r="AF2">
-        <v>0.004290396347641945</v>
+        <v>0.00940534844994545</v>
       </c>
       <c r="AG2">
-        <v>-0.1033152565360069</v>
+        <v>-0.09520764648914337</v>
       </c>
       <c r="AH2">
-        <v>0.0232448372989893</v>
+        <v>0.01668155193328857</v>
       </c>
       <c r="AI2">
-        <v>0.02886666357517242</v>
+        <v>0.02292449772357941</v>
       </c>
       <c r="AJ2">
-        <v>-0.001384220784530044</v>
+        <v>-0.00366495898924768</v>
       </c>
       <c r="AK2">
-        <v>-0.002713999012485147</v>
+        <v>0.002076605567708611</v>
       </c>
       <c r="AL2">
-        <v>0.002224610885605216</v>
+        <v>-0.0008085162262432277</v>
       </c>
       <c r="AM2">
-        <v>-0.06264267861843109</v>
+        <v>-0.05318088084459305</v>
       </c>
       <c r="AN2">
-        <v>0.05438470095396042</v>
+        <v>0.05561024695634842</v>
       </c>
       <c r="AO2">
-        <v>0.02525435760617256</v>
+        <v>0.02493912354111671</v>
       </c>
       <c r="AP2">
-        <v>-0.01694974489510059</v>
+        <v>-0.01584445685148239</v>
       </c>
       <c r="AQ2">
-        <v>0.0001592077896930277</v>
+        <v>-0.01162765268236399</v>
       </c>
       <c r="AR2">
-        <v>0.1216084733605385</v>
+        <v>0.1230226159095764</v>
       </c>
       <c r="AS2">
-        <v>-0.01893653534352779</v>
+        <v>-0.01809563301503658</v>
       </c>
       <c r="AT2">
-        <v>0.004900102503597736</v>
+        <v>0.009695589542388916</v>
       </c>
       <c r="AU2">
-        <v>-0.03048665449023247</v>
+        <v>-0.02666545286774635</v>
       </c>
       <c r="AV2">
-        <v>0.04833131656050682</v>
+        <v>0.04736724868416786</v>
       </c>
       <c r="AW2">
-        <v>-0.01609611138701439</v>
+        <v>-0.01648101769387722</v>
       </c>
       <c r="AX2">
-        <v>-0.002280058804899454</v>
+        <v>-0.0009439981076866388</v>
       </c>
       <c r="AY2">
-        <v>-0.07329694926738739</v>
+        <v>-0.06988615542650223</v>
       </c>
       <c r="AZ2">
-        <v>-0.02401138469576836</v>
+        <v>-0.02271587401628494</v>
       </c>
       <c r="BA2">
-        <v>0.06024054810404778</v>
+        <v>0.06361313164234161</v>
       </c>
       <c r="BB2">
-        <v>-0.03683038800954819</v>
+        <v>-0.04744302108883858</v>
       </c>
       <c r="BC2">
-        <v>-0.01936897821724415</v>
+        <v>-0.01322418637573719</v>
       </c>
       <c r="BD2">
-        <v>0.1535786390304565</v>
+        <v>0.1542303711175919</v>
       </c>
       <c r="BE2">
-        <v>-0.009513629600405693</v>
+        <v>-0.0125414039939642</v>
       </c>
       <c r="BF2">
-        <v>-0.06739813834428787</v>
+        <v>-0.07807651162147522</v>
       </c>
       <c r="BG2">
-        <v>-0.02259484119713306</v>
+        <v>-0.02173721976578236</v>
       </c>
       <c r="BH2">
-        <v>-0.005106823984533548</v>
+        <v>-0.01333947665989399</v>
       </c>
       <c r="BI2">
-        <v>-0.02665258198976517</v>
+        <v>-0.02716868929564953</v>
       </c>
       <c r="BJ2">
-        <v>0.009126779623329639</v>
+        <v>0.01493297517299652</v>
       </c>
       <c r="BK2">
-        <v>-0.01269294135272503</v>
+        <v>-0.01033915486186743</v>
       </c>
       <c r="BL2">
-        <v>0.03858540579676628</v>
+        <v>0.04118223115801811</v>
       </c>
       <c r="BM2">
-        <v>-0.01852959394454956</v>
+        <v>-0.01479609776288271</v>
       </c>
       <c r="BN2">
-        <v>-0.02563268505036831</v>
+        <v>-0.02477559819817543</v>
       </c>
       <c r="BO2">
-        <v>0.006650429219007492</v>
+        <v>0.01059725880622864</v>
       </c>
       <c r="BP2">
-        <v>0.005836409982293844</v>
+        <v>-0.0006295625353232026</v>
       </c>
       <c r="BQ2">
-        <v>-0.01901276968419552</v>
+        <v>-0.01586169749498367</v>
       </c>
       <c r="BR2">
-        <v>-0.01070026215165854</v>
+        <v>-0.02060870081186295</v>
       </c>
       <c r="BS2">
-        <v>-0.00385628012008965</v>
+        <v>0.003368456847965717</v>
       </c>
       <c r="BT2">
-        <v>0.002386758336797357</v>
+        <v>0.005558652337640524</v>
       </c>
       <c r="BU2">
-        <v>-0.05817066133022308</v>
+        <v>-0.05779251828789711</v>
       </c>
       <c r="BV2">
-        <v>0.03220761567354202</v>
+        <v>0.03474718704819679</v>
       </c>
       <c r="BW2">
-        <v>0.005627202335745096</v>
+        <v>0.01234957296401262</v>
       </c>
       <c r="BX2">
-        <v>0.08754491060972214</v>
+        <v>0.09272471070289612</v>
       </c>
       <c r="BY2">
-        <v>-0.004304408095777035</v>
+        <v>-0.01107310969382524</v>
       </c>
       <c r="BZ2">
-        <v>0.07337795197963715</v>
+        <v>0.08027449995279312</v>
       </c>
       <c r="CA2">
-        <v>-0.01769445650279522</v>
+        <v>-0.0147380456328392</v>
       </c>
       <c r="CB2">
-        <v>-0.1221389546990395</v>
+        <v>-0.1170733422040939</v>
       </c>
       <c r="CC2">
-        <v>-0.005361583549529314</v>
+        <v>-0.004708238411694765</v>
       </c>
       <c r="CD2">
-        <v>-0.006088998168706894</v>
+        <v>-0.006430146750062704</v>
       </c>
       <c r="CE2">
-        <v>-0.01027265004813671</v>
+        <v>-0.01127168256789446</v>
       </c>
       <c r="CF2">
-        <v>-0.04074019193649292</v>
+        <v>-0.04500391334295273</v>
       </c>
       <c r="CG2">
-        <v>-0.01275834813714027</v>
+        <v>-0.01585958898067474</v>
       </c>
       <c r="CH2">
-        <v>-0.04688328504562378</v>
+        <v>-0.03056301362812519</v>
       </c>
       <c r="CI2">
-        <v>0.008742882870137691</v>
+        <v>0.01001240499317646</v>
       </c>
       <c r="CJ2">
-        <v>0.04917549341917038</v>
+        <v>0.04633263126015663</v>
       </c>
       <c r="CK2">
-        <v>-0.02916372567415237</v>
+        <v>-0.02931904792785645</v>
       </c>
       <c r="CL2">
-        <v>-0.0003902780299540609</v>
+        <v>-0.002781943185254931</v>
       </c>
       <c r="CM2">
-        <v>0.02261988818645477</v>
+        <v>0.02378897741436958</v>
       </c>
       <c r="CN2">
-        <v>0.0002152395900338888</v>
+        <v>0.008283348754048347</v>
       </c>
       <c r="CO2">
-        <v>0.005460849963128567</v>
+        <v>0.007335101254284382</v>
       </c>
       <c r="CP2">
-        <v>0.04337994381785393</v>
+        <v>0.04250090569257736</v>
       </c>
       <c r="CQ2">
-        <v>-0.06238647922873497</v>
+        <v>-0.06101304665207863</v>
       </c>
       <c r="CR2">
-        <v>-0.01550058461725712</v>
+        <v>-0.005528602283447981</v>
       </c>
       <c r="CS2">
-        <v>-0.004051374271512032</v>
+        <v>-0.002066134940832853</v>
       </c>
       <c r="CT2">
-        <v>0.0008648567018099129</v>
+        <v>0.001918532070703804</v>
       </c>
       <c r="CU2">
-        <v>-0.002785883145406842</v>
+        <v>-0.0002894236531574279</v>
       </c>
       <c r="CV2">
-        <v>0.001675292383879423</v>
+        <v>-0.006139814388006926</v>
       </c>
       <c r="CW2">
-        <v>-0.1025248914957047</v>
+        <v>-0.102591946721077</v>
       </c>
       <c r="CX2">
-        <v>0.004697320982813835</v>
+        <v>-0.0006828600890003145</v>
       </c>
       <c r="CY2">
-        <v>0.01908483728766441</v>
+        <v>0.01819741725921631</v>
       </c>
       <c r="CZ2">
-        <v>-5.086681630928069E-05</v>
+        <v>0.001586837461218238</v>
       </c>
       <c r="DA2">
-        <v>-0.08520576357841492</v>
+        <v>-0.08419632911682129</v>
       </c>
       <c r="DB2">
-        <v>-0.04440593346953392</v>
+        <v>-0.04029082506895065</v>
       </c>
       <c r="DC2">
-        <v>-0.0002066275774268433</v>
+        <v>-0.002542816568166018</v>
       </c>
       <c r="DD2">
-        <v>-0.08326399326324463</v>
+        <v>-0.08182378858327866</v>
       </c>
       <c r="DE2">
-        <v>-0.01324726548045874</v>
+        <v>-0.01226660795509815</v>
       </c>
       <c r="DF2">
-        <v>0.07538864016532898</v>
+        <v>0.07784223556518555</v>
       </c>
       <c r="DG2">
-        <v>-0.003074843203648925</v>
+        <v>-0.008673832751810551</v>
       </c>
       <c r="DH2">
-        <v>0.006231603212654591</v>
+        <v>-0.001740226405672729</v>
       </c>
       <c r="DI2">
-        <v>0.009995987638831139</v>
+        <v>0.01167222857475281</v>
       </c>
       <c r="DJ2">
-        <v>-0.0471198596060276</v>
+        <v>-0.04591454565525055</v>
       </c>
       <c r="DK2">
-        <v>-0.06420338898897171</v>
+        <v>-0.06576456129550934</v>
       </c>
       <c r="DL2">
-        <v>-0.0627831444144249</v>
+        <v>-0.06728716939687729</v>
       </c>
       <c r="DM2">
-        <v>-0.03733348101377487</v>
+        <v>-0.02754776738584042</v>
       </c>
       <c r="DN2">
-        <v>0.04191075265407562</v>
+        <v>0.04250814765691757</v>
       </c>
       <c r="DO2">
-        <v>0.03975948318839073</v>
+        <v>0.04257690533995628</v>
       </c>
       <c r="DP2">
-        <v>-0.01008815504610538</v>
+        <v>-0.006802249234169722</v>
       </c>
       <c r="DQ2">
-        <v>-0.003555140225216746</v>
+        <v>-0.002799503272399306</v>
       </c>
       <c r="DR2">
-        <v>-0.006348727270960808</v>
+        <v>-0.001779956044629216</v>
       </c>
       <c r="DS2">
-        <v>0.01105581410229206</v>
+        <v>0.006763880141079426</v>
       </c>
       <c r="DT2">
-        <v>-0.1012129634618759</v>
+        <v>-0.1024313494563103</v>
       </c>
       <c r="DU2">
-        <v>0.01534788869321346</v>
+        <v>0.01369854807853699</v>
       </c>
       <c r="DV2">
-        <v>-0.001964384224265814</v>
+        <v>-0.006194158457219601</v>
       </c>
       <c r="DW2">
-        <v>0.0003182934306096286</v>
+        <v>0.002423232886940241</v>
       </c>
       <c r="DX2">
-        <v>-0.04112215340137482</v>
+        <v>-0.03983886539936066</v>
       </c>
       <c r="DY2">
-        <v>0.005098120309412479</v>
+        <v>0.00390701973810792</v>
       </c>
       <c r="DZ2">
-        <v>-0.01092800404876471</v>
+        <v>-0.007941111922264099</v>
       </c>
       <c r="EA2">
-        <v>0.06640927493572235</v>
+        <v>0.06646145880222321</v>
       </c>
       <c r="EB2">
-        <v>-0.1461886614561081</v>
+        <v>-0.1445488482713699</v>
       </c>
       <c r="EC2">
-        <v>-0.004490029998123646</v>
+        <v>0.002488958416506648</v>
       </c>
       <c r="ED2">
-        <v>-0.162814736366272</v>
+        <v>-0.1635130792856216</v>
       </c>
       <c r="EE2">
-        <v>0.01545199751853943</v>
+        <v>0.0149859469383955</v>
       </c>
       <c r="EF2">
-        <v>0.009276906959712505</v>
+        <v>0.009962809272110462</v>
       </c>
       <c r="EG2">
-        <v>-0.04157355427742004</v>
+        <v>-0.03427384048700333</v>
       </c>
       <c r="EH2">
-        <v>-0.13393634557724</v>
+        <v>-0.1367137283086777</v>
       </c>
       <c r="EI2">
-        <v>0.06153658032417297</v>
+        <v>0.06565715372562408</v>
       </c>
       <c r="EJ2">
-        <v>-0.01798336952924728</v>
+        <v>-0.01558376383036375</v>
       </c>
       <c r="EK2">
-        <v>-0.003298363415524364</v>
+        <v>-0.005206585396081209</v>
       </c>
       <c r="EL2">
-        <v>0.000356113538146019</v>
+        <v>0.002030901378020644</v>
       </c>
       <c r="EM2">
-        <v>0.06348453462123871</v>
+        <v>0.06047860532999039</v>
       </c>
       <c r="EN2">
-        <v>-0.03361566737294197</v>
+        <v>-0.03442252054810524</v>
       </c>
       <c r="EO2">
-        <v>0.08473454415798187</v>
+        <v>0.08072561770677567</v>
       </c>
       <c r="EP2">
-        <v>0.06363093107938766</v>
+        <v>0.06118042767047882</v>
       </c>
       <c r="EQ2">
-        <v>0.02995352447032928</v>
+        <v>0.03154804930090904</v>
       </c>
       <c r="ER2">
-        <v>-0.006100028287619352</v>
+        <v>-0.006337511353194714</v>
       </c>
       <c r="ES2">
-        <v>0.06342427432537079</v>
+        <v>0.05793540552258492</v>
       </c>
       <c r="ET2">
-        <v>0.001379718771204352</v>
+        <v>-0.006235747598111629</v>
       </c>
       <c r="EU2">
-        <v>-0.04606945440173149</v>
+        <v>-0.0465596616268158</v>
       </c>
       <c r="EV2">
-        <v>0.01527482084929943</v>
+        <v>0.006299962755292654</v>
       </c>
       <c r="EW2">
-        <v>0.08133870363235474</v>
+        <v>0.0816660150885582</v>
       </c>
       <c r="EX2">
-        <v>-0.02839481271803379</v>
+        <v>-0.02950380742549896</v>
       </c>
       <c r="EY2">
-        <v>0.01482911966741085</v>
+        <v>0.01554896496236324</v>
       </c>
       <c r="EZ2">
-        <v>-0.08337011933326721</v>
+        <v>-0.07817431539297104</v>
       </c>
       <c r="FA2">
-        <v>-0.01255905814468861</v>
+        <v>-0.009832211770117283</v>
       </c>
       <c r="FB2">
-        <v>-0.006795557681471109</v>
+        <v>-0.005030929576605558</v>
       </c>
       <c r="FC2">
-        <v>-0.04652866348624229</v>
+        <v>-0.05330130830407143</v>
       </c>
       <c r="FD2">
-        <v>-0.004357598256319761</v>
+        <v>-0.002216792432591319</v>
       </c>
       <c r="FE2">
-        <v>-0.04641168937087059</v>
+        <v>-0.04903864488005638</v>
       </c>
       <c r="FF2">
-        <v>-0.03110642731189728</v>
+        <v>-0.02889714203774929</v>
       </c>
       <c r="FG2">
-        <v>-0.1211433857679367</v>
+        <v>-0.1075290739536285</v>
       </c>
       <c r="FH2">
-        <v>-0.007535842247307301</v>
+        <v>-3.86325154977385E-05</v>
       </c>
       <c r="FI2">
-        <v>0.03403348103165627</v>
+        <v>0.03119828924536705</v>
       </c>
       <c r="FJ2">
-        <v>0.02754890918731689</v>
+        <v>0.0269815344363451</v>
       </c>
       <c r="FK2">
-        <v>0.002946094144135714</v>
+        <v>0.006052674725651741</v>
       </c>
       <c r="FL2">
-        <v>-0.05226797983050346</v>
+        <v>-0.05421067401766777</v>
       </c>
       <c r="FM2">
-        <v>0.1042638793587685</v>
+        <v>0.1118110343813896</v>
       </c>
       <c r="FN2">
-        <v>0.05186726897954941</v>
+        <v>0.05533198267221451</v>
       </c>
       <c r="FO2">
-        <v>-0.002801869530230761</v>
+        <v>-0.008233322761952877</v>
       </c>
       <c r="FP2">
-        <v>0.01270466111600399</v>
+        <v>0.006243474315851927</v>
       </c>
       <c r="FQ2">
-        <v>0.009492007084190845</v>
+        <v>0.01106014754623175</v>
       </c>
       <c r="FR2">
-        <v>3.913933687726967E-05</v>
+        <v>0.001265084370970726</v>
       </c>
       <c r="FS2">
-        <v>0.001087121316231787</v>
+        <v>0.001796545460820198</v>
       </c>
       <c r="FT2">
-        <v>-0.003723130095750093</v>
+        <v>-0.001910288585349917</v>
       </c>
       <c r="FU2">
-        <v>0.2054208070039749</v>
+        <v>0.205131322145462</v>
       </c>
       <c r="FV2">
-        <v>0.07270964980125427</v>
+        <v>0.07283715158700943</v>
       </c>
       <c r="FW2">
-        <v>-0.006616530474275351</v>
+        <v>-0.00711382320150733</v>
       </c>
       <c r="FX2">
-        <v>0.006067690439522266</v>
+        <v>-0.001939388690516353</v>
       </c>
       <c r="FY2">
-        <v>-0.003062284318730235</v>
+        <v>-0.002133397618308663</v>
       </c>
       <c r="FZ2">
-        <v>0.005575123708695173</v>
+        <v>0.0055472063831985</v>
       </c>
       <c r="GA2">
-        <v>-0.04038200899958611</v>
+        <v>-0.03219474107027054</v>
       </c>
       <c r="GB2">
-        <v>-0.0004469067789614201</v>
+        <v>0.002746829763054848</v>
       </c>
       <c r="GC2">
-        <v>-0.1045455560088158</v>
+        <v>-0.1015306562185287</v>
       </c>
       <c r="GD2">
-        <v>-0.02229881659150124</v>
+        <v>-0.02309972792863846</v>
       </c>
       <c r="GE2">
-        <v>0.008927102200686932</v>
+        <v>0.01054749358445406</v>
       </c>
       <c r="GF2">
-        <v>-0.05770380422472954</v>
+        <v>-0.06069609522819519</v>
       </c>
       <c r="GG2">
-        <v>-0.09601203352212906</v>
+        <v>-0.09250294417142868</v>
       </c>
       <c r="GH2">
-        <v>0.007533492054790258</v>
+        <v>0.00705338828265667</v>
       </c>
       <c r="GI2">
-        <v>-0.02397334761917591</v>
+        <v>-0.02665585465729237</v>
       </c>
       <c r="GJ2">
-        <v>-0.005933028645813465</v>
+        <v>-0.006651361472904682</v>
       </c>
       <c r="GK2">
-        <v>-0.1104792207479477</v>
+        <v>-0.09298224002122879</v>
       </c>
       <c r="GL2">
-        <v>-0.05068937689065933</v>
+        <v>-0.04851366579532623</v>
       </c>
       <c r="GM2">
-        <v>-0.04535941407084465</v>
+        <v>-0.04382545128464699</v>
       </c>
       <c r="GN2">
-        <v>0.01714657805860043</v>
+        <v>0.01316845417022705</v>
       </c>
       <c r="GO2">
-        <v>0.02575788646936417</v>
+        <v>0.02166551537811756</v>
       </c>
       <c r="GP2">
-        <v>0.007507287431508303</v>
+        <v>0.008047021925449371</v>
       </c>
       <c r="GQ2">
-        <v>0.001552812173031271</v>
+        <v>0.004026258364319801</v>
       </c>
       <c r="GR2">
-        <v>0.006001109723001719</v>
+        <v>0.00580653315410018</v>
       </c>
       <c r="GS2">
-        <v>-0.1123730689287186</v>
+        <v>-0.1121572107076645</v>
       </c>
       <c r="GT2">
-        <v>-0.003878475166857243</v>
+        <v>-0.0007050929707475007</v>
       </c>
       <c r="GU2">
-        <v>0.02530094422399998</v>
+        <v>0.02526693604886532</v>
       </c>
       <c r="GV2">
-        <v>-0.01173541415482759</v>
+        <v>-0.006328691728413105</v>
       </c>
       <c r="GW2">
-        <v>-0.03828799352049828</v>
+        <v>-0.03961589932441711</v>
       </c>
       <c r="GX2">
-        <v>0.0005647643702104688</v>
+        <v>-0.0003728093579411507</v>
       </c>
       <c r="GY2">
-        <v>-0.01186116319149733</v>
+        <v>-0.01135503966361284</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Energy.xlsx
+++ b/static/Models/Regression/Equation/Energy.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.002596959238871932</v>
+        <v>-0.007179716601967812</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01272706128656864</v>
+        <v>0.01451279409229755</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04588228836655617</v>
+        <v>0.04695077985525131</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.06366199254989624</v>
+        <v>-0.06591296195983887</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005079166148789227</v>
+        <v>0.003564579179510474</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07965373247861862</v>
+        <v>0.07825311273336411</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005219897720962763</v>
+        <v>0.004374098032712936</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0044518425129354</v>
+        <v>-0.004317544866353273</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.07526899129152298</v>
+        <v>-0.07530175894498825</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.003232310060411692</v>
+        <v>0.0001582693948876113</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0005627021891996264</v>
+        <v>-0.006819821894168854</v>
       </c>
       <c r="M2" t="n">
-        <v>0.009077779017388821</v>
+        <v>0.01131825521588326</v>
       </c>
       <c r="N2" t="n">
-        <v>0.007946026511490345</v>
+        <v>0.01196999847888947</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05796065926551819</v>
+        <v>0.05570970103144646</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.009583800099790096</v>
+        <v>-0.008100502192974091</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07013165950775146</v>
+        <v>0.07203580439090729</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.0131305567920208</v>
+        <v>-0.005829753819853067</v>
       </c>
       <c r="S2" t="n">
-        <v>0.112356036901474</v>
+        <v>0.1092969626188278</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.0141530716791749</v>
+        <v>-0.01476374268531799</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1136188358068466</v>
+        <v>0.1164117753505707</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.00104845070745796</v>
+        <v>0.003874632995575666</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04631209746003151</v>
+        <v>0.0467396192252636</v>
       </c>
       <c r="X2" t="n">
-        <v>0.018899817019701</v>
+        <v>0.01356031280010939</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002406859304755926</v>
+        <v>0.0003892556123901159</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.04654321447014809</v>
+        <v>0.04924419894814491</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003079624613747001</v>
+        <v>0.006192085798829794</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.04323697835206985</v>
+        <v>0.04199391603469849</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.07183364778757095</v>
+        <v>0.07594270259141922</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01395987719297409</v>
+        <v>0.01403440721333027</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.01543845888227224</v>
+        <v>-0.01776381209492683</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.006680508144199848</v>
+        <v>0.008543881587684155</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.0950620099902153</v>
+        <v>-0.09129779785871506</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.01742157340049744</v>
+        <v>0.01846972107887268</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.02300242334604263</v>
+        <v>0.01912213861942291</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.0005411812453530729</v>
+        <v>0.002594546182081103</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.002693121787160635</v>
+        <v>0.005003164988011122</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.003289977088570595</v>
+        <v>-0.0003148207906633615</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.04967940226197243</v>
+        <v>-0.0532744899392128</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.05101308971643448</v>
+        <v>0.05163929983973503</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02129841595888138</v>
+        <v>0.0198743287473917</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.01652844995260239</v>
+        <v>-0.01687055826187134</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.01127687655389309</v>
+        <v>-0.009621107950806618</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.1286494135856628</v>
+        <v>0.125679150223732</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.02309226803481579</v>
+        <v>-0.02254144474864006</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.00592060387134552</v>
+        <v>0.007743353955447674</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.02738523483276367</v>
+        <v>-0.02752482704818249</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.04626324400305748</v>
+        <v>0.04277603700757027</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.01689383201301098</v>
+        <v>-0.01649850606918335</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.002976841526106</v>
+        <v>-0.00188815372530371</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.07187910377979279</v>
+        <v>-0.07164168357849121</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.02100030519068241</v>
+        <v>-0.02096665278077126</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.05950092151761055</v>
+        <v>0.06179343909025192</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.03953668847680092</v>
+        <v>-0.03718419745564461</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.01025664713233709</v>
+        <v>-0.007744248956441879</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.1546588391065598</v>
+        <v>0.1547935009002686</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.00759179750457406</v>
+        <v>-0.0021972949616611</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.07347270101308823</v>
+        <v>-0.07102620601654053</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.02108914405107498</v>
+        <v>-0.02166939340531826</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.01730656810104847</v>
+        <v>-0.01406122650951147</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.02701910398900509</v>
+        <v>-0.02623120695352554</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.007859185338020325</v>
+        <v>0.01191624719649553</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.01408964581787586</v>
+        <v>-0.0168518740683794</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.03804691880941391</v>
+        <v>0.03463248163461685</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.017702991142869</v>
+        <v>-0.01635445654392242</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.02702775411307812</v>
+        <v>-0.02590887434780598</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.005883175879716873</v>
+        <v>0.005234933458268642</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.001063129166141152</v>
+        <v>-0.004786025267094374</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.01621818542480469</v>
+        <v>-0.01872434839606285</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.01917595975100994</v>
+        <v>-0.01583340205252171</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.002154104877263308</v>
+        <v>-0.00193219818174839</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.006881541106849909</v>
+        <v>0.009290107525885105</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.05749886855483055</v>
+        <v>-0.05904900282621384</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0352313444018364</v>
+        <v>0.03380710631608963</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.01168474461883307</v>
+        <v>0.003555742092430592</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0919126570224762</v>
+        <v>0.09188011288642883</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.009637191891670227</v>
+        <v>-0.006176237016916275</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.07848378270864487</v>
+        <v>0.07763168215751648</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.01541044749319553</v>
+        <v>-0.01565461419522762</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.1220683753490448</v>
+        <v>-0.1223811358213425</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.004402849823236465</v>
+        <v>-0.004441902041435242</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.008648051880300045</v>
+        <v>-0.009420190006494522</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.0144128268584609</v>
+        <v>-0.01447589416056871</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.04415972903370857</v>
+        <v>-0.04135286808013916</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.01815435104072094</v>
+        <v>-0.02512608096003532</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.03236846625804901</v>
+        <v>-0.03331467509269714</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.01067491248250008</v>
+        <v>0.01100276969373226</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.04805943742394447</v>
+        <v>0.05260811001062393</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.02848808467388153</v>
+        <v>-0.0307536069303751</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.002662168582901359</v>
+        <v>-0.002935469150543213</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.02305327914655209</v>
+        <v>0.02480414509773254</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.006377885583788157</v>
+        <v>0.001891697756946087</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.00738834310323</v>
+        <v>0.006903496105223894</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.04644319415092468</v>
+        <v>0.04198979958891869</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.06111444532871246</v>
+        <v>-0.06243317574262619</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.001539733959361911</v>
+        <v>-0.004285151604562998</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.001485723769292235</v>
+        <v>-0.0007625128491781652</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.001927482313476503</v>
+        <v>0.001580117037519813</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.005984500516206026</v>
+        <v>-0.002878043334931135</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.006322101224213839</v>
+        <v>-0.00410210806876421</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.1014034152030945</v>
+        <v>-0.0987728089094162</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.001379578257910907</v>
+        <v>0.003291937056928873</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.01808487810194492</v>
+        <v>0.01775788515806198</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.0002405212435405701</v>
+        <v>0.002303660614416003</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.0873781219124794</v>
+        <v>-0.08977100253105164</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.04510452225804329</v>
+        <v>-0.04237350821495056</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.004025392234325409</v>
+        <v>-0.005906205624341965</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.0809146836400032</v>
+        <v>-0.08031050860881805</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.01153275836259127</v>
+        <v>-0.0103293564170599</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.07922283560037613</v>
+        <v>0.08270561695098877</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.002865851391106844</v>
+        <v>-0.004953891970217228</v>
       </c>
       <c r="DH2" t="n">
-        <v>6.940068851690739e-05</v>
+        <v>0.002841464709490538</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.009823465719819069</v>
+        <v>0.01359971426427364</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.04755207151174545</v>
+        <v>-0.04543234035372734</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.06198251247406006</v>
+        <v>-0.05651072785258293</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.07279419898986816</v>
+        <v>-0.07919941842556</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.03598809242248535</v>
+        <v>-0.03179914131760597</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.04314646497368813</v>
+        <v>0.04261830449104309</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.04154470935463905</v>
+        <v>0.03450126573443413</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.009489452466368675</v>
+        <v>-0.01407221797853708</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.002194999717175961</v>
+        <v>-0.001750431256368756</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.00623639952391386</v>
+        <v>-0.01175030134618282</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.005352026782929897</v>
+        <v>-0.0004789952363353223</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.1038825362920761</v>
+        <v>-0.1018099710345268</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.009570250287652016</v>
+        <v>0.006388202775269747</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.007768417242914438</v>
+        <v>-0.004988830536603928</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.007276082877069712</v>
+        <v>0.004620390012860298</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.03939057514071465</v>
+        <v>-0.03961943462491035</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.001579161733388901</v>
+        <v>0.005721674766391516</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.01277191378176212</v>
+        <v>-0.01627669297158718</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.06730746477842331</v>
+        <v>0.07920727878808975</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.1439085602760315</v>
+        <v>-0.1439379751682281</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.002023382112383842</v>
+        <v>0.001369868172332644</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.1629651933908463</v>
+        <v>-0.1634335070848465</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.01613964699208736</v>
+        <v>0.01558604557067156</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.01292918622493744</v>
+        <v>0.00639821495860815</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.03320442512631416</v>
+        <v>-0.0351380780339241</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.134953185915947</v>
+        <v>-0.1312691271305084</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.06498391181230545</v>
+        <v>0.06267119944095612</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.01210407819598913</v>
+        <v>-0.01540019363164902</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.004461340140551329</v>
+        <v>-0.004339226055890322</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.002038310980424285</v>
+        <v>0.0006334204808808863</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.06071028113365173</v>
+        <v>0.05519340932369232</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.03591852262616158</v>
+        <v>-0.0341404527425766</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.07769779115915298</v>
+        <v>0.06878060847520828</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.06361979991197586</v>
+        <v>0.0563611276447773</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.03241981565952301</v>
+        <v>0.03138647228479385</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.007713395170867443</v>
+        <v>-0.007458643987774849</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.05994490161538124</v>
+        <v>0.06072778254747391</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.007548689842224121</v>
+        <v>-0.00407678447663784</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.04464612901210785</v>
+        <v>-0.04851184785366058</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.003593609435483813</v>
+        <v>0.005265844520181417</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.07919716835021973</v>
+        <v>0.082248255610466</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.03259935230016708</v>
+        <v>-0.03274928033351898</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.01523941941559315</v>
+        <v>0.0172188114374876</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.08142751455307007</v>
+        <v>-0.07911116629838943</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.006074689328670502</v>
+        <v>-0.006795205641537905</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.004688901826739311</v>
+        <v>-0.003767024260014296</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.05093346908688545</v>
+        <v>-0.04790724441409111</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.004776512272655964</v>
+        <v>-0.002126938663423061</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.05066906288266182</v>
+        <v>-0.05555258691310883</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.0299814660102129</v>
+        <v>-0.02953478321433067</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1134817600250244</v>
+        <v>-0.1175393983721733</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0002698669559322298</v>
+        <v>0.0002278863539686427</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.02894238196313381</v>
+        <v>0.02550948970019817</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.02656032517552376</v>
+        <v>0.02305991016328335</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.01117630675435066</v>
+        <v>0.007808459457010031</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.05306174233555794</v>
+        <v>-0.06095640361309052</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.1116054505109787</v>
+        <v>0.1132136881351471</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.05248419940471649</v>
+        <v>0.04911637306213379</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.00376899098046124</v>
+        <v>-0.001140640815719962</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.008942490443587303</v>
+        <v>0.01845194026827812</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.01102180406451225</v>
+        <v>0.009988145902752876</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.001878180191852152</v>
+        <v>0.002329508308321238</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.00183161289896816</v>
+        <v>0.001890027080662549</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.001395076978951693</v>
+        <v>-0.001364086521789432</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.2054040879011154</v>
+        <v>0.2054016292095184</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.07353097200393677</v>
+        <v>0.07065555453300476</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.006487498059868813</v>
+        <v>-0.007386029232293367</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0009379531256854534</v>
+        <v>0.003264698898419738</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.003266893792897463</v>
+        <v>-0.003667604643851519</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.005742406472563744</v>
+        <v>0.008202194236218929</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.0320231132209301</v>
+        <v>-0.03180340677499771</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.003020760603249073</v>
+        <v>-0.0002803413663059473</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.1025630980730057</v>
+        <v>-0.1035304367542267</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0.02536696940660477</v>
+        <v>-0.02721068449318409</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.01060314103960991</v>
+        <v>0.008800448849797249</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.05774352699518204</v>
+        <v>-0.0547364316880703</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.09059157967567444</v>
+        <v>-0.08769907802343369</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.002392156515270472</v>
+        <v>0.004587506409734488</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.02515077777206898</v>
+        <v>-0.02643878944218159</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.004244520328938961</v>
+        <v>-0.006061092019081116</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.09353186190128326</v>
+        <v>-0.09630589187145233</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.05079811066389084</v>
+        <v>-0.04978508502244949</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.03982250019907951</v>
+        <v>-0.04315954819321632</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.01164763420820236</v>
+        <v>0.0009208312840200961</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.02135869115591049</v>
+        <v>0.02566463686525822</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.0080831004306674</v>
+        <v>0.008293253369629383</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.002940337406471372</v>
+        <v>-0.0009323751437477767</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.008594883605837822</v>
+        <v>0.0106148524209857</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.1074143722653389</v>
+        <v>-0.1126763969659805</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.002096343087032437</v>
+        <v>-0.001990256831049919</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.02455417811870575</v>
+        <v>0.02755605429410934</v>
       </c>
       <c r="GV2" t="n">
-        <v>-0.0002109314809786156</v>
+        <v>0.002578873885795474</v>
       </c>
       <c r="GW2" t="n">
-        <v>-0.038131944835186</v>
+        <v>-0.04152816161513329</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.001476496341638267</v>
+        <v>0.003998893778771162</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.0107229994609952</v>
+        <v>-0.01069389190524817</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Energy.xlsx
+++ b/static/Models/Regression/Equation/Energy.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.007179716601967812</v>
+        <v>-0.006417442113161087</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01451279409229755</v>
+        <v>0.009695579297840595</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04695077985525131</v>
+        <v>0.05045677348971367</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.06591296195983887</v>
+        <v>-0.0728093683719635</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003564579179510474</v>
+        <v>0.006065958179533482</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07825311273336411</v>
+        <v>0.07524103671312332</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004374098032712936</v>
+        <v>0.00422794371843338</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.004317544866353273</v>
+        <v>-0.002764577278867364</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.07530175894498825</v>
+        <v>-0.07243090867996216</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001582693948876113</v>
+        <v>-0.003997962456196547</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.006819821894168854</v>
+        <v>-0.005436497274786234</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01131825521588326</v>
+        <v>0.0123628806322813</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01196999847888947</v>
+        <v>0.01260860357433558</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05570970103144646</v>
+        <v>0.05672962963581085</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.008100502192974091</v>
+        <v>-0.007340843789279461</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07203580439090729</v>
+        <v>0.08026019483804703</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.005829753819853067</v>
+        <v>0.000753537577111274</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1092969626188278</v>
+        <v>0.1141997501254082</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.01476374268531799</v>
+        <v>-0.0148392915725708</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1164117753505707</v>
+        <v>0.1199458166956902</v>
       </c>
       <c r="V2" t="n">
-        <v>0.003874632995575666</v>
+        <v>0.009537979029119015</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0467396192252636</v>
+        <v>0.04676720499992371</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01356031280010939</v>
+        <v>0.009207903407514095</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0003892556123901159</v>
+        <v>-0.006063677836209536</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.04924419894814491</v>
+        <v>0.04706797003746033</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.006192085798829794</v>
+        <v>0.01006495300680399</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.04199391603469849</v>
+        <v>0.04196736589074135</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.07594270259141922</v>
+        <v>0.07581685483455658</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01403440721333027</v>
+        <v>0.01482389681041241</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.01776381209492683</v>
+        <v>-0.01404119841754436</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.008543881587684155</v>
+        <v>0.004535555373877287</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.09129779785871506</v>
+        <v>-0.08808163553476334</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.01846972107887268</v>
+        <v>0.01521630305796862</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.01912213861942291</v>
+        <v>0.01976034604012966</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.002594546182081103</v>
+        <v>0.01303151063621044</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.005003164988011122</v>
+        <v>-0.001583558856509626</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.0003148207906633615</v>
+        <v>0.009723350405693054</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.0532744899392128</v>
+        <v>-0.05497262254357338</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.05163929983973503</v>
+        <v>0.05488747730851173</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0198743287473917</v>
+        <v>0.01388060115277767</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.01687055826187134</v>
+        <v>-0.01886837370693684</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.009621107950806618</v>
+        <v>-0.005649930331856012</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.125679150223732</v>
+        <v>0.1216567680239677</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.02254144474864006</v>
+        <v>-0.02106550894677639</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.007743353955447674</v>
+        <v>0.005563664250075817</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.02752482704818249</v>
+        <v>-0.03029893524944782</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.04277603700757027</v>
+        <v>0.03769666329026222</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.01649850606918335</v>
+        <v>-0.01766796223819256</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.00188815372530371</v>
+        <v>-0.001529458444565535</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.07164168357849121</v>
+        <v>-0.06761566549539566</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.02096665278077126</v>
+        <v>-0.01956245116889477</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.06179343909025192</v>
+        <v>0.06117707490921021</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.03718419745564461</v>
+        <v>-0.03916659578680992</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.007744248956441879</v>
+        <v>-0.006093788892030716</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.1547935009002686</v>
+        <v>0.1559794992208481</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.0021972949616611</v>
+        <v>-0.003562873229384422</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.07102620601654053</v>
+        <v>-0.07419762760400772</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.02166939340531826</v>
+        <v>-0.0211163442581892</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.01406122650951147</v>
+        <v>-0.006487503182142973</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.02623120695352554</v>
+        <v>-0.02771392837166786</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.01191624719649553</v>
+        <v>0.0115453228354454</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.0168518740683794</v>
+        <v>-0.01802202500402927</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.03463248163461685</v>
+        <v>0.03893547505140305</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.01635445654392242</v>
+        <v>-0.01190581079572439</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.02590887434780598</v>
+        <v>-0.02057663351297379</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.005234933458268642</v>
+        <v>0.006925172638148069</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.004786025267094374</v>
+        <v>-0.002458903938531876</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.01872434839606285</v>
+        <v>-0.01854482479393482</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.01583340205252171</v>
+        <v>-0.01149743050336838</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.00193219818174839</v>
+        <v>0.006543572526425123</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.009290107525885105</v>
+        <v>0.0138581981882453</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.05904900282621384</v>
+        <v>-0.06050489842891693</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.03380710631608963</v>
+        <v>0.02896803617477417</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.003555742092430592</v>
+        <v>-0.000486964185256511</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.09188011288642883</v>
+        <v>0.09512193500995636</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.006176237016916275</v>
+        <v>-0.007906746119260788</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.07763168215751648</v>
+        <v>0.07939489930868149</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.01565461419522762</v>
+        <v>-0.01819255948066711</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.1223811358213425</v>
+        <v>-0.1263671368360519</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.004441902041435242</v>
+        <v>-0.003272711997851729</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.009420190006494522</v>
+        <v>-0.01580525748431683</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.01447589416056871</v>
+        <v>-0.02071421779692173</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.04135286808013916</v>
+        <v>-0.04312090948224068</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.02512608096003532</v>
+        <v>-0.02301445789635181</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.03331467509269714</v>
+        <v>-0.03127651661634445</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.01100276969373226</v>
+        <v>0.01193130854517221</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.05260811001062393</v>
+        <v>0.05161882936954498</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0307536069303751</v>
+        <v>-0.03147407248616219</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.002935469150543213</v>
+        <v>-0.00143736507743597</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.02480414509773254</v>
+        <v>0.01922029815614223</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.001891697756946087</v>
+        <v>-0.0018117381259799</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.006903496105223894</v>
+        <v>0.006348085589706898</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.04198979958891869</v>
+        <v>0.04207382351160049</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.06243317574262619</v>
+        <v>-0.06163233518600464</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.004285151604562998</v>
+        <v>0.001348417950794101</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.0007625128491781652</v>
+        <v>-0.001166379894129932</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.001580117037519813</v>
+        <v>0.00296263606287539</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.002878043334931135</v>
+        <v>-0.003116540377959609</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.00410210806876421</v>
+        <v>-0.0126181161031127</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.0987728089094162</v>
+        <v>-0.1053801700472832</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.003291937056928873</v>
+        <v>-0.00355061748996377</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.01775788515806198</v>
+        <v>0.01612996682524681</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.002303660614416003</v>
+        <v>0.002913480624556541</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.08977100253105164</v>
+        <v>-0.08546333760023117</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.04237350821495056</v>
+        <v>-0.04330733418464661</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.005906205624341965</v>
+        <v>0.003687380813062191</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.08031050860881805</v>
+        <v>-0.07806993275880814</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.0103293564170599</v>
+        <v>-0.008506988175213337</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.08270561695098877</v>
+        <v>0.07959089428186417</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.004953891970217228</v>
+        <v>1.571602842886932e-05</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.002841464709490538</v>
+        <v>0.001890739775262773</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.01359971426427364</v>
+        <v>0.007421198766678572</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.04543234035372734</v>
+        <v>-0.04427030682563782</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.05651072785258293</v>
+        <v>-0.0487636961042881</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.07919941842556</v>
+        <v>-0.0747954472899437</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.03179914131760597</v>
+        <v>-0.03208834305405617</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.04261830449104309</v>
+        <v>0.04297919943928719</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.03450126573443413</v>
+        <v>0.03653335198760033</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.01407221797853708</v>
+        <v>-0.01330993510782719</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.001750431256368756</v>
+        <v>-0.0001786712236935273</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.01175030134618282</v>
+        <v>-0.002880587009713054</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0004789952363353223</v>
+        <v>-0.00642401771619916</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.1018099710345268</v>
+        <v>-0.09620907157659531</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.006388202775269747</v>
+        <v>0.007291334215551615</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.004988830536603928</v>
+        <v>-0.008766528218984604</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.004620390012860298</v>
+        <v>0.01003905851393938</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.03961943462491035</v>
+        <v>-0.03848894685506821</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.005721674766391516</v>
+        <v>0.005397978238761425</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.01627669297158718</v>
+        <v>-0.01551944669336081</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.07920727878808975</v>
+        <v>0.07626552134752274</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.1439379751682281</v>
+        <v>-0.1430530101060867</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.001369868172332644</v>
+        <v>-0.003313226858153939</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.1634335070848465</v>
+        <v>-0.1630768775939941</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.01558604557067156</v>
+        <v>0.01632004603743553</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.00639821495860815</v>
+        <v>0.006360270548611879</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.0351380780339241</v>
+        <v>-0.03506879508495331</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.1312691271305084</v>
+        <v>-0.1290885508060455</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.06267119944095612</v>
+        <v>0.06318943947553635</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.01540019363164902</v>
+        <v>-0.01383405271917582</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.004339226055890322</v>
+        <v>-0.003711999161168933</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0006334204808808863</v>
+        <v>0.000379762495867908</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.05519340932369232</v>
+        <v>0.05718483775854111</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.0341404527425766</v>
+        <v>-0.04016570001840591</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.06878060847520828</v>
+        <v>0.07152990996837616</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0563611276447773</v>
+        <v>0.05692613497376442</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.03138647228479385</v>
+        <v>0.02747772820293903</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.007458643987774849</v>
+        <v>-0.006030234973877668</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.06072778254747391</v>
+        <v>0.05852589383721352</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.00407678447663784</v>
+        <v>-0.002722184639424086</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.04851184785366058</v>
+        <v>-0.05231913551688194</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.005265844520181417</v>
+        <v>0.007169870194047689</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.082248255610466</v>
+        <v>0.08197807520627975</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.03274928033351898</v>
+        <v>-0.02978491224348545</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0172188114374876</v>
+        <v>0.01693603210151196</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.07911116629838943</v>
+        <v>-0.07977389544248581</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.006795205641537905</v>
+        <v>-0.0115666501224041</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.003767024260014296</v>
+        <v>-0.001520401798188686</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.04790724441409111</v>
+        <v>-0.04678530991077423</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.002126938663423061</v>
+        <v>0.0003071996034123003</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.05555258691310883</v>
+        <v>-0.06192214787006378</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.02953478321433067</v>
+        <v>-0.0307471826672554</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1175393983721733</v>
+        <v>-0.1151227355003357</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0002278863539686427</v>
+        <v>-0.00723654218018055</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.02550948970019817</v>
+        <v>0.02632840722799301</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.02305991016328335</v>
+        <v>0.02322617918252945</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.007808459457010031</v>
+        <v>0.00701742572709918</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.06095640361309052</v>
+        <v>-0.05814729258418083</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.1132136881351471</v>
+        <v>0.09729349613189697</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.04911637306213379</v>
+        <v>0.05420014634728432</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.001140640815719962</v>
+        <v>-0.007996203377842903</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.01845194026827812</v>
+        <v>0.01348673552274704</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.009988145902752876</v>
+        <v>0.009452706202864647</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.002329508308321238</v>
+        <v>0.003303750185295939</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.001890027080662549</v>
+        <v>0.0036648481618613</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.001364086521789432</v>
+        <v>-0.0003672590537462384</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.2054016292095184</v>
+        <v>0.2039543241262436</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.07065555453300476</v>
+        <v>0.06938301026821136</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.007386029232293367</v>
+        <v>-0.005329606123268604</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003264698898419738</v>
+        <v>-0.001122439047321677</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.003667604643851519</v>
+        <v>-0.001684932271018624</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.008202194236218929</v>
+        <v>0.01220038067549467</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.03180340677499771</v>
+        <v>-0.02533001638948917</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.0002803413663059473</v>
+        <v>0.003598458599299192</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.1035304367542267</v>
+        <v>-0.1070383191108704</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0.02721068449318409</v>
+        <v>-0.02626645751297474</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.008800448849797249</v>
+        <v>0.00900226179510355</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.0547364316880703</v>
+        <v>-0.04887951910495758</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.08769907802343369</v>
+        <v>-0.0851694718003273</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.004587506409734488</v>
+        <v>0.002022909931838512</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.02643878944218159</v>
+        <v>-0.02355908416211605</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.006061092019081116</v>
+        <v>0.001147982547990978</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.09630589187145233</v>
+        <v>-0.09260266274213791</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.04978508502244949</v>
+        <v>-0.06074478477239609</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.04315954819321632</v>
+        <v>-0.03921516984701157</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.0009208312840200961</v>
+        <v>0.00399850495159626</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.02566463686525822</v>
+        <v>0.03262133151292801</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.008293253369629383</v>
+        <v>0.009853540919721127</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.0009323751437477767</v>
+        <v>0.004987876396626234</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.0106148524209857</v>
+        <v>0.008542874827980995</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.1126763969659805</v>
+        <v>-0.1145738959312439</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.001990256831049919</v>
+        <v>-0.007931295782327652</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.02755605429410934</v>
+        <v>0.0271682795137167</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.002578873885795474</v>
+        <v>-0.001252502319402993</v>
       </c>
       <c r="GW2" t="n">
-        <v>-0.04152816161513329</v>
+        <v>-0.03429784253239632</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.003998893778771162</v>
+        <v>0.007197157479822636</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.01069389190524817</v>
+        <v>-0.009943399578332901</v>
       </c>
     </row>
   </sheetData>
